--- a/examples/Trello_UploadTest.xlsx
+++ b/examples/Trello_UploadTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\Documents\GitHub\WWaage_Excel\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918E88F5-E967-4667-833E-DA7897307833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B4675-64E2-4700-BDF1-555EB3F870DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27296B9-DBEC-4719-9090-A0D869021A93}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27296B9-DBEC-4719-9090-A0D869021A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,30 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
-    <t>NAME:</t>
-  </si>
-  <si>
-    <t>BEZEICHNUNG:</t>
-  </si>
-  <si>
-    <t>STRASSE:</t>
-  </si>
-  <si>
-    <t>ORT:</t>
-  </si>
-  <si>
-    <t>BEARBEITER:</t>
-  </si>
-  <si>
-    <t>TEL: 0049</t>
-  </si>
-  <si>
-    <t>HANDY:</t>
-  </si>
-  <si>
-    <t>TYPE:</t>
-  </si>
-  <si>
     <t>Vesenmaier Wilhelm u. Barbara</t>
   </si>
   <si>
@@ -145,6 +121,30 @@
   </si>
   <si>
     <t>BW 40t Dis omat Tersus</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>BEZEICHNUNG</t>
+  </si>
+  <si>
+    <t>STRASSE</t>
+  </si>
+  <si>
+    <t>ORT</t>
+  </si>
+  <si>
+    <t>BEARBEITER</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>HANDY</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,28 +641,28 @@
     <row r="1" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J1" s="5"/>
     </row>
@@ -671,29 +671,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -701,25 +701,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
@@ -727,27 +727,27 @@
         <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
@@ -755,51 +755,51 @@
         <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Trello_UploadTest.xlsx
+++ b/examples/Trello_UploadTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\Documents\GitHub\WWaage_Excel\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B4675-64E2-4700-BDF1-555EB3F870DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB9884-89F8-41AD-B66E-871C50AB127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27296B9-DBEC-4719-9090-A0D869021A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="576">
   <si>
     <t>Vesenmaier Wilhelm u. Barbara</t>
   </si>
@@ -145,13 +146,1656 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>neu
+26</t>
+  </si>
+  <si>
+    <t>BW 50t IT8000E</t>
+  </si>
+  <si>
+    <t>Kleinw. 1500 kg IT200</t>
+  </si>
+  <si>
+    <t>Gebendorfer Biogas GbR</t>
+  </si>
+  <si>
+    <t>Eggersdorf 3</t>
+  </si>
+  <si>
+    <t>84076 Pfeffenhausen</t>
+  </si>
+  <si>
+    <t>8754-237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151-14934110 </t>
+  </si>
+  <si>
+    <t>BW 60 t</t>
+  </si>
+  <si>
+    <t>Weigl Thomas</t>
+  </si>
+  <si>
+    <t>Weigl Agrar GbR</t>
+  </si>
+  <si>
+    <t>Sachsenhausen 11</t>
+  </si>
+  <si>
+    <t>8782-238</t>
+  </si>
+  <si>
+    <t>175-2403440</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>Gschwendtner Karl Gbr</t>
+  </si>
+  <si>
+    <t>Leitersdorf 1</t>
+  </si>
+  <si>
+    <t>84082 Laberweinting</t>
+  </si>
+  <si>
+    <t>170-160 4072</t>
+  </si>
+  <si>
+    <t>BW 30 t</t>
+  </si>
+  <si>
+    <t>Klebensberger Josef</t>
+  </si>
+  <si>
+    <t>Allkofen 250</t>
+  </si>
+  <si>
+    <t>Hr. Klebensb</t>
+  </si>
+  <si>
+    <t>9454-342</t>
+  </si>
+  <si>
+    <t>Bachhuber-Kiening GbR  Thomas</t>
+  </si>
+  <si>
+    <t>Salzburgweg 7</t>
+  </si>
+  <si>
+    <t>84088 Neufahrn</t>
+  </si>
+  <si>
+    <t>160-96758058</t>
+  </si>
+  <si>
+    <t>Wagner Biogas GbR Norber,Markus</t>
+  </si>
+  <si>
+    <t>Ettenkofen 18</t>
+  </si>
+  <si>
+    <t>174-9371182</t>
+  </si>
+  <si>
+    <t>Peissl Martin</t>
+  </si>
+  <si>
+    <t>Schatzhofen 29</t>
+  </si>
+  <si>
+    <t>84095 Furth</t>
+  </si>
+  <si>
+    <t>151-12701820</t>
+  </si>
+  <si>
+    <t>BW 40 t</t>
+  </si>
+  <si>
+    <t>Ropa Fahrzeug-Masch.bau GmbH</t>
+  </si>
+  <si>
+    <t>Sittelsdorf 24</t>
+  </si>
+  <si>
+    <t>84097 Herrngiersdorf</t>
+  </si>
+  <si>
+    <t>8785-96010</t>
+  </si>
+  <si>
+    <t>171-3044649</t>
+  </si>
+  <si>
+    <t>Beck Alfons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptstraße 31 </t>
+  </si>
+  <si>
+    <t>84098 Hohenthann</t>
+  </si>
+  <si>
+    <t>8771-1276</t>
+  </si>
+  <si>
+    <t>BW 55 t</t>
+  </si>
+  <si>
+    <t>Ruhland Bernhard (gepachtet von Patzinger Silvia)</t>
+  </si>
+  <si>
+    <t>84076 Pfeffenhausen, Egg 4</t>
+  </si>
+  <si>
+    <t>Stranz 1</t>
+  </si>
+  <si>
+    <t>84098 Schmatzhausen</t>
+  </si>
+  <si>
+    <t>171-2784096</t>
+  </si>
+  <si>
+    <t>Huber Maximilian</t>
+  </si>
+  <si>
+    <t>Weinstr. 5</t>
+  </si>
+  <si>
+    <t>84107 Weihmichl</t>
+  </si>
+  <si>
+    <t>8708-262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171-6587644 </t>
+  </si>
+  <si>
+    <t>Eppeneder Klaus</t>
+  </si>
+  <si>
+    <t>Falkenberg 9a</t>
+  </si>
+  <si>
+    <t>84137 Vilsbiburg</t>
+  </si>
+  <si>
+    <t>Josef          Klaus</t>
+  </si>
+  <si>
+    <t>151-16717804 171-4577258</t>
+  </si>
+  <si>
+    <t>Lichtenegger Agrar GbR</t>
+  </si>
+  <si>
+    <t>Eibelswimm 55</t>
+  </si>
+  <si>
+    <t>Heinrich, Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8741-2336                    </t>
+  </si>
+  <si>
+    <t>160-97736391</t>
+  </si>
+  <si>
+    <t>Gruber Matthias</t>
+  </si>
+  <si>
+    <t>Obertrennbach 50</t>
+  </si>
+  <si>
+    <t>84140 Gangkofen</t>
+  </si>
+  <si>
+    <t>8722-248</t>
+  </si>
+  <si>
+    <t>151-25395918</t>
+  </si>
+  <si>
+    <t>BW 50  t</t>
+  </si>
+  <si>
+    <t>Hinter Robert Bioenergie</t>
+  </si>
+  <si>
+    <t>Fußöd 1</t>
+  </si>
+  <si>
+    <t>175-2965 502</t>
+  </si>
+  <si>
+    <t>Forster Christian</t>
+  </si>
+  <si>
+    <t>Bruckhof 2</t>
+  </si>
+  <si>
+    <t>84152 Mengkofen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9427-607                </t>
+  </si>
+  <si>
+    <t>Popp Irmgard</t>
+  </si>
+  <si>
+    <t>Meising 1</t>
+  </si>
+  <si>
+    <t>9427-959563</t>
+  </si>
+  <si>
+    <t>151-19556631</t>
+  </si>
+  <si>
+    <t>Grötzinger Bioenergie GbR</t>
+  </si>
+  <si>
+    <t>Dorfstr. 24 Hilling</t>
+  </si>
+  <si>
+    <t>84155 Bodenkirchen/Hilling</t>
+  </si>
+  <si>
+    <t>170-1866 490</t>
+  </si>
+  <si>
+    <t>Nirschl Christian</t>
+  </si>
+  <si>
+    <t>Im Feld 2</t>
+  </si>
+  <si>
+    <t>84160 Frontenhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>160-2452504</t>
+  </si>
+  <si>
+    <t>Bachner Maximilian</t>
+  </si>
+  <si>
+    <t>Obermusbach 1</t>
+  </si>
+  <si>
+    <t>84166 Adlkofen</t>
+  </si>
+  <si>
+    <t>8707-565</t>
+  </si>
+  <si>
+    <t>179-9135412</t>
+  </si>
+  <si>
+    <t>Grubwinkler Manfred</t>
+  </si>
+  <si>
+    <t>Alram Nr. 1</t>
+  </si>
+  <si>
+    <t>84168 Aham</t>
+  </si>
+  <si>
+    <t>8744-8728</t>
+  </si>
+  <si>
+    <t>171-1288884</t>
+  </si>
+  <si>
+    <t>Sagberger Ernst Landhandel</t>
+  </si>
+  <si>
+    <t>Geisenhauserstr. 19</t>
+  </si>
+  <si>
+    <t>84169 Altraunhofen</t>
+  </si>
+  <si>
+    <t>8705-365</t>
+  </si>
+  <si>
+    <t>BW 25 t</t>
+  </si>
+  <si>
+    <t>Ammer Johann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Onichreit 2</t>
+  </si>
+  <si>
+    <t>84175 Gerzens</t>
+  </si>
+  <si>
+    <t>8741-1687</t>
+  </si>
+  <si>
+    <t>BW 50 t 84v</t>
+  </si>
+  <si>
+    <t>Bioenergie Holzhausen</t>
+  </si>
+  <si>
+    <t>Holzhausen 2</t>
+  </si>
+  <si>
+    <t>84177 Gottfrieding</t>
+  </si>
+  <si>
+    <t>Hr. Lammer</t>
+  </si>
+  <si>
+    <t>8731-8598</t>
+  </si>
+  <si>
+    <t>170-7620017</t>
+  </si>
+  <si>
+    <t>Beck Johann Jun.</t>
+  </si>
+  <si>
+    <t>Mittergolding Ortsstr.2</t>
+  </si>
+  <si>
+    <t>84184 Tiefenbach</t>
+  </si>
+  <si>
+    <t>871-41224</t>
+  </si>
+  <si>
+    <t>Gründl Konrad</t>
+  </si>
+  <si>
+    <t>Wies 1</t>
+  </si>
+  <si>
+    <t>84189 Wurmsham</t>
+  </si>
+  <si>
+    <t>8742-489</t>
+  </si>
+  <si>
+    <t>160-96907453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW 50 t - 84v </t>
+  </si>
+  <si>
+    <t>Moser GmbH
+Lantwirtschaftsb.</t>
+  </si>
+  <si>
+    <t>84307 Eggenfelden, Untereschlbach 9</t>
+  </si>
+  <si>
+    <t>Peterskirchen 17</t>
+  </si>
+  <si>
+    <t>84307  Eggenfelden</t>
+  </si>
+  <si>
+    <t>Hr. Moser</t>
+  </si>
+  <si>
+    <t>8721-8372</t>
+  </si>
+  <si>
+    <t>Ertl Geflügelhof KG</t>
+  </si>
+  <si>
+    <t>Rottenwöhr 48</t>
+  </si>
+  <si>
+    <t>84323 Massing</t>
+  </si>
+  <si>
+    <t>Fr. März</t>
+  </si>
+  <si>
+    <t>8724-475</t>
+  </si>
+  <si>
+    <t>alle Waagen</t>
+  </si>
+  <si>
+    <t>Stela Laxhuber GmbH</t>
+  </si>
+  <si>
+    <t>Laxhuberplatz 1</t>
+  </si>
+  <si>
+    <t>Hr. Pietsch</t>
+  </si>
+  <si>
+    <t>8724-89934</t>
+  </si>
+  <si>
+    <t>175-4332507</t>
+  </si>
+  <si>
+    <t>Galler Florian</t>
+  </si>
+  <si>
+    <t>Unterkettendorf 3</t>
+  </si>
+  <si>
+    <t>84326 Falkenberg</t>
+  </si>
+  <si>
+    <t>8727-606</t>
+  </si>
+  <si>
+    <t>151-41916471</t>
+  </si>
+  <si>
+    <t>Baumgartner Bernhard</t>
+  </si>
+  <si>
+    <t>Oberrohrbach 5</t>
+  </si>
+  <si>
+    <t>84326 Rimbach</t>
+  </si>
+  <si>
+    <t>8727-282</t>
+  </si>
+  <si>
+    <t>Ganghofer Ludwig</t>
+  </si>
+  <si>
+    <t>Vogging 6</t>
+  </si>
+  <si>
+    <t>8724-910009</t>
+  </si>
+  <si>
+    <t>171-3200544</t>
+  </si>
+  <si>
+    <t>Hanseder Bernhard</t>
+  </si>
+  <si>
+    <t>Hochwimm 1a</t>
+  </si>
+  <si>
+    <t>170-2961631</t>
+  </si>
+  <si>
+    <t>Greßlinger Biogas GbR</t>
+  </si>
+  <si>
+    <t>Egelsberg 3</t>
+  </si>
+  <si>
+    <t>84329 Wurmannsquick</t>
+  </si>
+  <si>
+    <t>170-1081245</t>
+  </si>
+  <si>
+    <t>Wolfsberger Karl</t>
+  </si>
+  <si>
+    <t>Schachten 4</t>
+  </si>
+  <si>
+    <t>8725-910382</t>
+  </si>
+  <si>
+    <t>BW 50 t + Kleinw</t>
+  </si>
+  <si>
+    <t>Mittermeier Martin</t>
+  </si>
+  <si>
+    <t>Netzteil v. Eektriker getauscht 25.7.</t>
+  </si>
+  <si>
+    <t>Blumreising 28</t>
+  </si>
+  <si>
+    <t>84333 Malgersdorf</t>
+  </si>
+  <si>
+    <t>162-9248 654</t>
+  </si>
+  <si>
+    <t>Plessl Georg</t>
+  </si>
+  <si>
+    <t>Seidenberg 99</t>
+  </si>
+  <si>
+    <t>Hr. Plessl</t>
+  </si>
+  <si>
+    <t>9954-700700</t>
+  </si>
+  <si>
+    <t>151-22541111</t>
+  </si>
+  <si>
+    <t>Schustereder Ludwig</t>
+  </si>
+  <si>
+    <t>Kleinmünchen 3</t>
+  </si>
+  <si>
+    <t>84337 Schönau</t>
+  </si>
+  <si>
+    <t>8726-563</t>
+  </si>
+  <si>
+    <t>175-7266022</t>
+  </si>
+  <si>
+    <t>Wohlmannstetter Josef jun.</t>
+  </si>
+  <si>
+    <t>Hauptstr. 20</t>
+  </si>
+  <si>
+    <t>84339 Unterdietfurt - Vordersarling</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Wohlmannstetter Landhandel GmbH</t>
+  </si>
+  <si>
+    <t>84339 Vordersarling, Hauptstr. 20</t>
+  </si>
+  <si>
+    <t>84339 Vordersarling</t>
+  </si>
+  <si>
+    <t>8724-214</t>
+  </si>
+  <si>
+    <t>Gewerbegebiet Handwerk 1</t>
+  </si>
+  <si>
+    <t>Reinsperger Ludwig Bioenergie</t>
+  </si>
+  <si>
+    <t>Unterhattenbach 7</t>
+  </si>
+  <si>
+    <t>84364 Bad Birnbach</t>
+  </si>
+  <si>
+    <t>170-8404226</t>
+  </si>
+  <si>
+    <t>Damböck Silvia</t>
+  </si>
+  <si>
+    <t>Tanner Str. 4</t>
+  </si>
+  <si>
+    <t>84367 Noppling/Reut</t>
+  </si>
+  <si>
+    <t>8572-91070</t>
+  </si>
+  <si>
+    <t>160-97989802</t>
+  </si>
+  <si>
+    <t>BO 1200kg, Rohrbw500kg</t>
+  </si>
+  <si>
+    <t>Raiffeisenbank Neumarkt-
+St. Veit-Reischach eG</t>
+  </si>
+  <si>
+    <t>Standort Waage:</t>
+  </si>
+  <si>
+    <t>Auwiesenweg 3</t>
+  </si>
+  <si>
+    <t>84367 Zeilarn</t>
+  </si>
+  <si>
+    <t>Hr. Deiml</t>
+  </si>
+  <si>
+    <t>8725-9649051</t>
+  </si>
+  <si>
+    <t>BO 55 kg</t>
+  </si>
+  <si>
+    <t>neu
+P25</t>
+  </si>
+  <si>
+    <t>Blüml Baggerbetrieb GmbH</t>
+  </si>
+  <si>
+    <t>Eschbachweg 10</t>
+  </si>
+  <si>
+    <t>84371 Triftern</t>
+  </si>
+  <si>
+    <t>8562-96270-0</t>
+  </si>
+  <si>
+    <t>BW 50t 84vario</t>
+  </si>
+  <si>
+    <t>Max Georg Graf v. Arco
+auf Valley</t>
+  </si>
+  <si>
+    <t>94428 Eichendorf  Hauptstr. 12</t>
+  </si>
+  <si>
+    <t>Standort: Sandstr. 7</t>
+  </si>
+  <si>
+    <t>84378 Dietersburg</t>
+  </si>
+  <si>
+    <t>Hr. Stinglhammer</t>
+  </si>
+  <si>
+    <t>9952-280</t>
+  </si>
+  <si>
+    <t>160-90234357</t>
+  </si>
+  <si>
+    <t>Stelzeneder Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84381 Johannisk. Lapperding 6 </t>
+  </si>
+  <si>
+    <t>Windbaising 3</t>
+  </si>
+  <si>
+    <t>84381 Johanniskirchen</t>
+  </si>
+  <si>
+    <t>8564-320</t>
+  </si>
+  <si>
+    <t>160-91422752</t>
+  </si>
+  <si>
+    <t>Weiss Mehl GmbH</t>
+  </si>
+  <si>
+    <t>Bruckmühl 1</t>
+  </si>
+  <si>
+    <t>84387 Julbach</t>
+  </si>
+  <si>
+    <t>Hr. Wilmerdinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8678-549 </t>
+  </si>
+  <si>
+    <t>Berger Sabine Schweinemast, Ackerbau</t>
+  </si>
+  <si>
+    <t>Pemberg 1</t>
+  </si>
+  <si>
+    <t>84405 Dorfen</t>
+  </si>
+  <si>
+    <t>8081-957677</t>
+  </si>
+  <si>
+    <t>BW 20 t</t>
+  </si>
+  <si>
+    <t>Greimel GmbH&amp;Co.KG Bio Energie</t>
+  </si>
+  <si>
+    <t>Nickelhub 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8082-434                    </t>
+  </si>
+  <si>
+    <t>172-9417796</t>
+  </si>
+  <si>
+    <t>Piro Energie GbR Perzlmaier Markus, Rott Matthias, Irl Stefan</t>
+  </si>
+  <si>
+    <t>Eck bei Hinterberg 2</t>
+  </si>
+  <si>
+    <t>Hr. Perzlmaier</t>
+  </si>
+  <si>
+    <t>170-7261 913</t>
+  </si>
+  <si>
+    <t>Hölzl Klaus</t>
+  </si>
+  <si>
+    <t>Niederloh 2</t>
+  </si>
+  <si>
+    <t>84419 Schwindegg</t>
+  </si>
+  <si>
+    <t>151-52475241</t>
+  </si>
+  <si>
+    <t>Brenninger Georg</t>
+  </si>
+  <si>
+    <t>Hauptstr. 7</t>
+  </si>
+  <si>
+    <t>84432 Hohenpolding</t>
+  </si>
+  <si>
+    <t>8084-2382</t>
+  </si>
+  <si>
+    <t>BW 50 t, Bo 1t</t>
+  </si>
+  <si>
+    <t>Neudecker Anton</t>
+  </si>
+  <si>
+    <t>Gurnhub 1</t>
+  </si>
+  <si>
+    <t>8705-375</t>
+  </si>
+  <si>
+    <t>171-4475633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW 50 t </t>
+  </si>
+  <si>
+    <t>Wimmer Josef und Wimmer Tanja</t>
+  </si>
+  <si>
+    <t>Reit 1</t>
+  </si>
+  <si>
+    <t>171-71210706</t>
+  </si>
+  <si>
+    <t>Auer Christoph</t>
+  </si>
+  <si>
+    <t>Miesing 2</t>
+  </si>
+  <si>
+    <t>84494 Niederbergkirchen</t>
+  </si>
+  <si>
+    <t>8635-1200</t>
+  </si>
+  <si>
+    <t>Beck Thomas</t>
+  </si>
+  <si>
+    <t>Taibrechting 6</t>
+  </si>
+  <si>
+    <t>8639-1725</t>
+  </si>
+  <si>
+    <t>157-55993177</t>
+  </si>
+  <si>
+    <t>Wimmer Reinhard</t>
+  </si>
+  <si>
+    <t>Letzenberg 1</t>
+  </si>
+  <si>
+    <t>84543 Winhöring</t>
+  </si>
+  <si>
+    <t>170-5948217</t>
+  </si>
+  <si>
+    <t>Donislreiter Thomas GmbH</t>
+  </si>
+  <si>
+    <t>84576 Teising, Gewerberig 2</t>
+  </si>
+  <si>
+    <t>Obermörmoosen 3</t>
+  </si>
+  <si>
+    <t>84570 Polling</t>
+  </si>
+  <si>
+    <t>Hr. Renz</t>
+  </si>
+  <si>
+    <t>08633-506439</t>
+  </si>
+  <si>
+    <t>171-6246499</t>
+  </si>
+  <si>
+    <t>Graminger Walter jun. Biogasanlage</t>
+  </si>
+  <si>
+    <t>Siemensstr. 3A</t>
+  </si>
+  <si>
+    <t>Senior              Junior</t>
+  </si>
+  <si>
+    <t>171-6517414 0160-7609016</t>
+  </si>
+  <si>
+    <t>Kinzner Johann und Irmgard GbR</t>
+  </si>
+  <si>
+    <t>Schergenham 4</t>
+  </si>
+  <si>
+    <t>84574 Taufkirchen</t>
+  </si>
+  <si>
+    <t>160-566 1097</t>
+  </si>
+  <si>
+    <t>BW 50t 83sigma</t>
+  </si>
+  <si>
+    <t>neu</t>
+  </si>
+  <si>
+    <t>Bioenergie Kiefering GbR</t>
+  </si>
+  <si>
+    <t>Reichenpurn 45</t>
+  </si>
+  <si>
+    <t>84577 Tüssling</t>
+  </si>
+  <si>
+    <t>Hr. Wimmer</t>
+  </si>
+  <si>
+    <t>151-11696861</t>
+  </si>
+  <si>
+    <t>Reichenspurner Johann</t>
+  </si>
+  <si>
+    <t>Untergünzl 1</t>
+  </si>
+  <si>
+    <t>84579 Unterneukirchen</t>
+  </si>
+  <si>
+    <t>8633-6289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176-56763771 </t>
+  </si>
+  <si>
+    <t>NBS Bioenergie GmbH</t>
+  </si>
+  <si>
+    <t>85375 Neufahrn, Echinger Str. 5a</t>
+  </si>
+  <si>
+    <t>Moosmühlenweg 20a</t>
+  </si>
+  <si>
+    <t>85375 Neufahrn</t>
+  </si>
+  <si>
+    <t>Hr. Pleßl</t>
+  </si>
+  <si>
+    <t>8165-62960</t>
+  </si>
+  <si>
+    <t>151-22291476</t>
+  </si>
+  <si>
+    <t>Reischl Biogas</t>
+  </si>
+  <si>
+    <t>Höchenberg 1</t>
+  </si>
+  <si>
+    <t>85402 Kranzberg</t>
+  </si>
+  <si>
+    <t>172-8254 864</t>
+  </si>
+  <si>
+    <t>Kalteis Peter</t>
+  </si>
+  <si>
+    <t>48.5861959
+12.0357525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiendlberg 1  </t>
+  </si>
+  <si>
+    <t>85408 Gammelsdorf</t>
+  </si>
+  <si>
+    <t>8766-298</t>
+  </si>
+  <si>
+    <t>170-5855931</t>
+  </si>
+  <si>
+    <t>Huber Thomas Biogas GbR</t>
+  </si>
+  <si>
+    <t>Großhündlbach 6</t>
+  </si>
+  <si>
+    <t>85447 Fraunberg</t>
+  </si>
+  <si>
+    <t>8762-2784</t>
+  </si>
+  <si>
+    <t>171-1214494</t>
+  </si>
+  <si>
+    <t>Bauer Richard GmbH</t>
+  </si>
+  <si>
+    <t>Schulstr. 40</t>
+  </si>
+  <si>
+    <t>85452 Moosinning</t>
+  </si>
+  <si>
+    <t>8123-93120</t>
+  </si>
+  <si>
+    <t>Hupfer Gerog, Marianne und Erwin Biogas GbR</t>
+  </si>
+  <si>
+    <t>Eching 10</t>
+  </si>
+  <si>
+    <t>8123-1473</t>
+  </si>
+  <si>
+    <t>171-4545063</t>
+  </si>
+  <si>
+    <t>Huber Georg</t>
+  </si>
+  <si>
+    <t>Oppolding 42</t>
+  </si>
+  <si>
+    <t>85461 Bockhorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8122-962897         </t>
+  </si>
+  <si>
+    <t>173-5741876</t>
+  </si>
+  <si>
+    <t>Zöls  Gerhard BGA-Oberindling GmbH&amp;Co.KG</t>
+  </si>
+  <si>
+    <t>Oberindling 45</t>
+  </si>
+  <si>
+    <t>94060 Pocking</t>
+  </si>
+  <si>
+    <t>175-2064146</t>
+  </si>
+  <si>
+    <t>Osterholzer Josef</t>
+  </si>
+  <si>
+    <t>Aufhausen 4</t>
+  </si>
+  <si>
+    <t>94072 Bad Füssing</t>
+  </si>
+  <si>
+    <t>8537-919273</t>
+  </si>
+  <si>
+    <t>Huber Agrarhandel GmbH&amp;CoKG</t>
+  </si>
+  <si>
+    <t>Steindobl 1</t>
+  </si>
+  <si>
+    <t>94081 Fürstenzell</t>
+  </si>
+  <si>
+    <t>8502-8515</t>
+  </si>
+  <si>
+    <t>Rothofer Umwelt OHG</t>
+  </si>
+  <si>
+    <t>Hohenau 3</t>
+  </si>
+  <si>
+    <t>8502-922916</t>
+  </si>
+  <si>
+    <t>Dobler Max</t>
+  </si>
+  <si>
+    <t>Hub bei Griesbach 1</t>
+  </si>
+  <si>
+    <t>94086 Bad Griesbach</t>
+  </si>
+  <si>
+    <t>8532-8491</t>
+  </si>
+  <si>
+    <t>170-6054906</t>
+  </si>
+  <si>
+    <t>Lindner Johann</t>
+  </si>
+  <si>
+    <t>Kemading 3</t>
+  </si>
+  <si>
+    <t>8532-8247</t>
+  </si>
+  <si>
+    <t>160-97575144</t>
+  </si>
+  <si>
+    <t>Ortner Johannes Bioen.GmbH&amp;Co.KG</t>
+  </si>
+  <si>
+    <t>Jetzenau 8</t>
+  </si>
+  <si>
+    <t>94094 Malching</t>
+  </si>
+  <si>
+    <t>8533-7985</t>
+  </si>
+  <si>
+    <t>170-90470004</t>
+  </si>
+  <si>
+    <t>Hofbauer Ludwig</t>
+  </si>
+  <si>
+    <t>Kühbach 5</t>
+  </si>
+  <si>
+    <t>94094 Rotthalmünster</t>
+  </si>
+  <si>
+    <t>8536-1611</t>
+  </si>
+  <si>
+    <t>Geislberger Ernst</t>
+  </si>
+  <si>
+    <t>Poigham 34</t>
+  </si>
+  <si>
+    <t>94167 Tettenweis</t>
+  </si>
+  <si>
+    <t>0170-8142 051</t>
+  </si>
+  <si>
+    <t>Agrima GmbH&amp;CO.KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niederharthausen </t>
+  </si>
+  <si>
+    <t>94330 Aiterhofen</t>
+  </si>
+  <si>
+    <t>Fr. Dietl</t>
+  </si>
+  <si>
+    <t>9421-61974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170-3208033 </t>
+  </si>
+  <si>
+    <t>Mayer Franz-Xaver</t>
+  </si>
+  <si>
+    <t>Sondergai 8a</t>
+  </si>
+  <si>
+    <t>94339 Leiblfing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9953-980454            </t>
+  </si>
+  <si>
+    <t>152-51978322</t>
+  </si>
+  <si>
+    <t>Aholfing GmbH &amp; Co.KG Biogas</t>
+  </si>
+  <si>
+    <t>Puchhofer Str. 3</t>
+  </si>
+  <si>
+    <t>94345 Aholfing</t>
+  </si>
+  <si>
+    <t>Johann Busl</t>
+  </si>
+  <si>
+    <t>9429-902144</t>
+  </si>
+  <si>
+    <t>175-7254237</t>
+  </si>
+  <si>
+    <t>Schmidhuber Robert und Silke</t>
+  </si>
+  <si>
+    <t>Hierlbach 7</t>
+  </si>
+  <si>
+    <t>94351 Feldkirchen</t>
+  </si>
+  <si>
+    <t>9420-789</t>
+  </si>
+  <si>
+    <t>Josef Jänker LandhandelsGmbH</t>
+  </si>
+  <si>
+    <t>Rissmannsdorf 22</t>
+  </si>
+  <si>
+    <t>94359 Loitzendorf</t>
+  </si>
+  <si>
+    <t>9964-243</t>
+  </si>
+  <si>
+    <t>Rothamer Michael</t>
+  </si>
+  <si>
+    <t>Rothamer Patricia</t>
+  </si>
+  <si>
+    <t>Rotham 2</t>
+  </si>
+  <si>
+    <t>94377 Steinach</t>
+  </si>
+  <si>
+    <t>171-1924387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner Franz Agrarhandel </t>
+  </si>
+  <si>
+    <t>Nußbaumstr. 51</t>
+  </si>
+  <si>
+    <t>94405 Landau</t>
+  </si>
+  <si>
+    <t>9951-7687</t>
+  </si>
+  <si>
+    <t>BW 30/30/60 t</t>
+  </si>
+  <si>
+    <t>Bartlsperger Franz Josef</t>
+  </si>
+  <si>
+    <t>Hofmarktstr. 12 Zeholfing</t>
+  </si>
+  <si>
+    <t>Mühlenstr. 30</t>
+  </si>
+  <si>
+    <t>94405 Landau/Kleegarten</t>
+  </si>
+  <si>
+    <t>9951-603564</t>
+  </si>
+  <si>
+    <t>175-2968320</t>
+  </si>
+  <si>
+    <t>Plankl GbR Plankl Johann u.
+Plankl Johannes</t>
+  </si>
+  <si>
+    <t>Nepomukweg 32</t>
+  </si>
+  <si>
+    <t>160-9691026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW30/50t </t>
+  </si>
+  <si>
+    <t>Asbeck Manfred</t>
+  </si>
+  <si>
+    <t>Haingersdorf 18</t>
+  </si>
+  <si>
+    <t>94419 Reisbach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9954-90080  oder 7006721     </t>
+  </si>
+  <si>
+    <t>160-7775005</t>
+  </si>
+  <si>
+    <t>Huber GmbH</t>
+  </si>
+  <si>
+    <t>Landauerstr. 104</t>
+  </si>
+  <si>
+    <t>94419 Reisbach/Oberhausen</t>
+  </si>
+  <si>
+    <t>Hr. Huber</t>
+  </si>
+  <si>
+    <t>8734-202</t>
+  </si>
+  <si>
+    <t>171-7644251</t>
+  </si>
+  <si>
+    <t>Sporrer Gerhard</t>
+  </si>
+  <si>
+    <t>Eck 1</t>
+  </si>
+  <si>
+    <t>94424 Arnstorf</t>
+  </si>
+  <si>
+    <t>8723-910820</t>
+  </si>
+  <si>
+    <t>175-2710798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameres GmbH&amp;Co </t>
+  </si>
+  <si>
+    <t>Rannersdorf 12</t>
+  </si>
+  <si>
+    <t>94428 Eichendorf</t>
+  </si>
+  <si>
+    <t>9956-698</t>
+  </si>
+  <si>
+    <t>Haimerl Thomas</t>
+  </si>
+  <si>
+    <t>Hochwimm 1</t>
+  </si>
+  <si>
+    <t>9952-90107</t>
+  </si>
+  <si>
+    <t>Heißenhuber Bioenergie GmbH&amp;Co.KG</t>
+  </si>
+  <si>
+    <t>Attenkaisen 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09956-263                     </t>
+  </si>
+  <si>
+    <t>170-6853 677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendlmeier Anton            </t>
+  </si>
+  <si>
+    <t>Reichersdorfer Str. 12 Aufhausen</t>
+  </si>
+  <si>
+    <t>Standort Feldöd 6</t>
+  </si>
+  <si>
+    <t>9956-649</t>
+  </si>
+  <si>
+    <t>BW 50 t       BO 1500 kg</t>
+  </si>
+  <si>
+    <t>Schönhofer Christian und Patrick SG Bioenergie</t>
+  </si>
+  <si>
+    <t>Grimöd 1</t>
+  </si>
+  <si>
+    <t>9952-909525</t>
+  </si>
+  <si>
+    <t>151-12163206</t>
+  </si>
+  <si>
+    <r>
+      <t>SIS Bio Energie GbR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Hörmannsdorf 2</t>
+  </si>
+  <si>
+    <t>Stangl Christian</t>
+  </si>
+  <si>
+    <t>171-9907588</t>
+  </si>
+  <si>
+    <t>Stangl GmbH &amp; Co.
+Gemüse KG</t>
+  </si>
+  <si>
+    <t>Gmeinbauer 56</t>
+  </si>
+  <si>
+    <t>94436 Simbach</t>
+  </si>
+  <si>
+    <t>Hr. Maschak</t>
+  </si>
+  <si>
+    <t>9954-70013-23</t>
+  </si>
+  <si>
+    <t>div. Kleinw</t>
+  </si>
+  <si>
+    <t>Pflanzen Energie Bubachtal GmbH&amp;Co.KG</t>
+  </si>
+  <si>
+    <t>Vollnbach 40</t>
+  </si>
+  <si>
+    <t>94437 Maming</t>
+  </si>
+  <si>
+    <t>Schmutz Frank</t>
+  </si>
+  <si>
+    <t>175-1831693</t>
+  </si>
+  <si>
+    <t>Ruhsam 180</t>
+  </si>
+  <si>
+    <t>Moosbauer GbR</t>
+  </si>
+  <si>
+    <t>Dittenkofen 176</t>
+  </si>
+  <si>
+    <t>94437 Mamming</t>
+  </si>
+  <si>
+    <t>170-4313536</t>
+  </si>
+  <si>
+    <t>Wasta-Konserven Fischl GmbH&amp;CoKG</t>
+  </si>
+  <si>
+    <t>Münchsdorfer Str. 24</t>
+  </si>
+  <si>
+    <t>94439 Roßbach</t>
+  </si>
+  <si>
+    <t>Hr. Fischl</t>
+  </si>
+  <si>
+    <t>8547-960112</t>
+  </si>
+  <si>
+    <t>1xKontrollw.</t>
+  </si>
+  <si>
+    <t>Raiffeisenbank eG 
+Deggendorf-Plattling-Sonnenwald</t>
+  </si>
+  <si>
+    <t>Westlicher Stadtgraben 44</t>
+  </si>
+  <si>
+    <t>94469 Deggendorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Hartl </t>
+  </si>
+  <si>
+    <t>8549-9736444</t>
+  </si>
+  <si>
+    <t>Baumann Reiner</t>
+  </si>
+  <si>
+    <t>Kuffing 2</t>
+  </si>
+  <si>
+    <t>94474  Vilshofen</t>
+  </si>
+  <si>
+    <t>Hr. Baumann</t>
+  </si>
+  <si>
+    <t>8541-8329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigl Biogas GbR </t>
+  </si>
+  <si>
+    <t>Haardorferstr. 40</t>
+  </si>
+  <si>
+    <t>94486 Osterhofen</t>
+  </si>
+  <si>
+    <t>9932-1524</t>
+  </si>
+  <si>
+    <t>171-8528630</t>
+  </si>
+  <si>
+    <t>Pindel Wilhelm</t>
+  </si>
+  <si>
+    <t>Am Gewerbepark 1</t>
+  </si>
+  <si>
+    <t>94501 Aidenbach</t>
+  </si>
+  <si>
+    <t>8543-1451</t>
+  </si>
+  <si>
+    <t>BW 50 t,      BO 1500 kg</t>
+  </si>
+  <si>
+    <t>Bauer S. Bioenergie GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Sederweg 2</t>
+  </si>
+  <si>
+    <t>94522 Wallersdorf</t>
+  </si>
+  <si>
+    <t>175-7212172</t>
+  </si>
+  <si>
+    <t>Berger Markus u. Alois GbR</t>
+  </si>
+  <si>
+    <t>Hauptstr. 11</t>
+  </si>
+  <si>
+    <t>94533 Buchhofen</t>
+  </si>
+  <si>
+    <t>171-2256769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendlmaier Josef </t>
+  </si>
+  <si>
+    <t>Oro Obstverwertung eG 83101 Rohrdorf</t>
+  </si>
+  <si>
+    <t>Kroissen 16</t>
+  </si>
+  <si>
+    <t>94542 Haarbach</t>
+  </si>
+  <si>
+    <t>Hr. Wiesböck;    Hr. Hendlmaier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8535-700 </t>
+  </si>
+  <si>
+    <t>160-1574055</t>
+  </si>
+  <si>
+    <t>Zitzelsperger B. u. Z. GmbH</t>
+  </si>
+  <si>
+    <t>Dorf 1</t>
+  </si>
+  <si>
+    <t>94550 Künzing</t>
+  </si>
+  <si>
+    <t>171-869 2455</t>
+  </si>
+  <si>
+    <t>Fischer Max</t>
+  </si>
+  <si>
+    <t>Hankhof 3</t>
+  </si>
+  <si>
+    <t>94569 Stephansposching</t>
+  </si>
+  <si>
+    <t>9935-1299</t>
+  </si>
+  <si>
+    <t>151-28934846</t>
+  </si>
+  <si>
+    <t>Agro Trade Bayern GmbH&amp;Co.KG</t>
+  </si>
+  <si>
+    <t>Ramsdorf 12</t>
+  </si>
+  <si>
+    <t>94574 Wallerfing</t>
+  </si>
+  <si>
+    <t>Hr. Wagner</t>
+  </si>
+  <si>
+    <t>170-4511304</t>
+  </si>
+  <si>
+    <t>Krinner Agrarhandel</t>
+  </si>
+  <si>
+    <t>Hasreit 12</t>
+  </si>
+  <si>
+    <t>Hr. Krinner</t>
+  </si>
+  <si>
+    <t>9936-807</t>
+  </si>
+  <si>
+    <t>171-8223904</t>
+  </si>
+  <si>
+    <t>Pleintinger Herbert GmbH&amp;Co Gemüsehandel KG</t>
+  </si>
+  <si>
+    <t>Englöd 1</t>
+  </si>
+  <si>
+    <t>9936-1322</t>
+  </si>
+  <si>
+    <t>171-1932957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +1855,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,10 +1923,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,8 +1980,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695B2CE-1A93-4373-82D5-D8ECEBF5908E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A3" sqref="A3:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +2405,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -696,89 +2435,156 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C766A001-1DB2-42CD-85FA-1259AB8840A1}">
+  <dimension ref="A1:L120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>25</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>25</v>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>6</v>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>25</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>6</v>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>22</v>
@@ -796,9 +2602,3080 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="H24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>25</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>25</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>25</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>25</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="H39" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>1</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>25</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>25</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="H42" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>25</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>25</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="10">
+        <v>15115295440</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>25</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>25</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>25</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>25</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>25</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>25</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>25</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>25</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>25</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <v>25</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>25</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="H61" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>25</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>25</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>25</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="H64" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>25</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>25</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="H67" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>1</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>25</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>25</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>25</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>25</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>25</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>25</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>25</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>25</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>25</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>25</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>25</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>25</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>25</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="H85" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="I85" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J85" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>1</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>25</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>25</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>25</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="H90" s="10"/>
+      <c r="I90" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>25</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="H91" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>25</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H92" s="10"/>
+      <c r="I92" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>1</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>25</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>25</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>25</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>25</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="H98" s="10"/>
+      <c r="I98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>25</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>25</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>25</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>25</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>25</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>25</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>25</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>25</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <v>25</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C108" s="25"/>
+      <c r="D108" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="H108" s="16"/>
+      <c r="I108" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>25</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="H109" s="10"/>
+      <c r="I109" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="H110" s="10"/>
+      <c r="I110" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>25</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C111" s="37"/>
+      <c r="D111" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>25</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="H112" s="10"/>
+      <c r="I112" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>25</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>25</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="H114" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>25</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="H116" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>25</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>25</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>25</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>25</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/examples/Trello_UploadTest.xlsx
+++ b/examples/Trello_UploadTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\Documents\GitHub\WWaage_Excel\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB9884-89F8-41AD-B66E-871C50AB127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F860B-8A38-4EFF-9434-0A296D1FDCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27296B9-DBEC-4719-9090-A0D869021A93}"/>
   </bookViews>
@@ -37,26 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="576">
-  <si>
-    <t>Vesenmaier Wilhelm u. Barbara</t>
-  </si>
-  <si>
-    <t>Birkenhof Legehennen
-GmbH &amp; Co KG</t>
-  </si>
-  <si>
-    <t>Birkenhof 1</t>
-  </si>
-  <si>
-    <t>83562 Rechtmehring</t>
-  </si>
-  <si>
-    <t>junior             senior</t>
-  </si>
-  <si>
-    <t>173-5775276 173-3656797</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="570">
   <si>
     <t>BW 50 t</t>
   </si>
@@ -2364,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695B2CE-1A93-4373-82D5-D8ECEBF5908E}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD122"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,62 +2358,3261 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J7" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="H25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>25</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>25</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>25</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>25</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>25</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="H40" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>1</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>25</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>25</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="H43" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>25</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>25</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" s="10">
+        <v>15115295440</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>25</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>25</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>25</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>25</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>25</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>25</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>25</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>25</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>1</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="H59" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>25</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>25</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="H62" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>25</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>25</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>25</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>25</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>25</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" s="20"/>
+      <c r="H68" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>1</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>25</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>25</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>25</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>25</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C76" s="30"/>
+      <c r="D76" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>25</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>25</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>25</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>25</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>25</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>25</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="D82" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>25</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>25</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>25</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="I85" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="H86" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="I86" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>1</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>25</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>25</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H90" s="10"/>
+      <c r="I90" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>25</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H91" s="10"/>
+      <c r="I91" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>25</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="H92" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>25</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>1</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>25</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>25</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>25</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>25</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="H99" s="10"/>
+      <c r="I99" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>25</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>25</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>25</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>25</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>25</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>25</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>25</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>25</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>25</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C109" s="25"/>
+      <c r="D109" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="H109" s="16"/>
+      <c r="I109" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>25</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="H110" s="10"/>
+      <c r="I110" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="H111" s="10"/>
+      <c r="I111" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>25</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C112" s="37"/>
+      <c r="D112" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>25</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H113" s="10"/>
+      <c r="I113" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>25</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>25</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="H115" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>25</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F116" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="H117" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>25</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>25</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>25</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>25</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2455,25 +5635,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2481,27 +5661,27 @@
         <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,289 +5689,289 @@
         <v>25</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>25</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>25</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5"/>
     </row>
@@ -2800,2883 +5980,2883 @@
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>25</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>25</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>25</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>25</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>25</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="I30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>25</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="F33" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="G33" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>25</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>25</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>25</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>25</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>25</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>25</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>1</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>25</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>25</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F42" s="10"/>
       <c r="H42" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>25</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>25</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>25</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>25</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H45" s="10">
         <v>15115295440</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>25</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>25</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>1</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>25</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>25</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="G50" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>25</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>25</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="G52" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>25</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="H52" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="I52" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>25</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>25</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>25</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>263</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>25</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>269</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>25</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>25</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>25</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>25</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="E58" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>1</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>25</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="15" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>25</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F61" s="10"/>
       <c r="H61" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>25</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>25</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>25</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F64" s="10"/>
       <c r="H64" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>25</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>25</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="I65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>25</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>25</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="E66" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F67" s="20"/>
       <c r="H67" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="I67" s="18" t="s">
+      <c r="H68" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="J67" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="I68" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>1</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="E69" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
-        <v>1</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>25</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="G70" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
-        <v>25</v>
-      </c>
-      <c r="B70" s="13" t="s">
+      <c r="H70" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="I70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>25</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
-        <v>25</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>25</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>25</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>25</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="20" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>25</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>25</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>25</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>25</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>25</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C81" s="32"/>
       <c r="D81" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>25</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>25</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>25</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F85" s="20"/>
       <c r="H85" s="20" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J85" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>1</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>25</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E87" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>25</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>25</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G88" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>25</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="I88" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H89" s="10"/>
       <c r="I89" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>25</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>25</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F91" s="10"/>
       <c r="H91" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>25</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="9" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>1</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I93" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J93" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="B94" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E94" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="H94" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="J94" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>25</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>25</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G96" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H96" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>25</v>
-      </c>
-      <c r="B96" s="9" t="s">
+      <c r="I96" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>25</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>461</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12">
-        <v>25</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>467</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="15" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>25</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>25</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>25</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="20" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>25</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>25</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C103" s="29"/>
       <c r="D103" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>25</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="F103" s="11" t="s">
+      <c r="H104" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="I104" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
-        <v>25</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="J104" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>25</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D105" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E105" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F105" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H105" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I105" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>25</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="J104" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
-        <v>25</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="E106" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>25</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
-        <v>25</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
-        <v>25</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>25</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C108" s="25"/>
       <c r="D108" s="15" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>25</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H110" s="10"/>
       <c r="I110" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>25</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="11" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>25</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>25</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>25</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F114" s="10"/>
       <c r="H114" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>25</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="I114" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
-        <v>25</v>
-      </c>
-      <c r="B115" s="9" t="s">
+      <c r="H115" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="I115" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="F115" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F116" s="10"/>
       <c r="H116" s="39" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>25</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>25</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="H118" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="I118" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>25</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="I117" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>25</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="D119" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="E119" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="G119" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="H119" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="I119" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>25</v>
+      </c>
+      <c r="B120" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="I118" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
-        <v>25</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="D120" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
-        <v>25</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E120" s="9" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="9" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
